--- a/des-cipher-internals-in-excel/des-cipher-internals.xlsx
+++ b/des-cipher-internals-in-excel/des-cipher-internals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23835" windowHeight="10110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="DES" sheetId="6" r:id="rId1"/>
     <sheet name="S-boxes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -341,9 +341,6 @@
     <t>XOR left (no swap)</t>
   </si>
   <si>
-    <t>http://nayuki.eigenstate.org/page/des-cipher-internals-in-excel</t>
-  </si>
-  <si>
     <t>Extract bits</t>
   </si>
   <si>
@@ -355,11 +352,14 @@
   <si>
     <t>DES Cipher Internals</t>
   </si>
+  <si>
+    <t>http://www.nayuki.io/page/des-cipher-internals-in-excel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,6 +711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -758,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,7 +796,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,7 +1021,7 @@
   <sheetData>
     <row r="1" spans="1:130" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1219,7 +1222,7 @@
       <c r="BL2" s="26"/>
       <c r="BM2" s="26"/>
       <c r="BN2" s="26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BO2" s="26"/>
       <c r="BP2" s="26"/>
@@ -3134,7 +3137,7 @@
       <c r="DX11" s="4"/>
       <c r="DY11" s="4"/>
       <c r="DZ11" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3558,7 +3561,7 @@
       <c r="DX12" s="4"/>
       <c r="DY12" s="4"/>
       <c r="DZ12" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4926,7 +4929,7 @@
       <c r="DX17" s="4"/>
       <c r="DY17" s="4"/>
       <c r="DZ17" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,7 +5353,7 @@
       <c r="DX18" s="4"/>
       <c r="DY18" s="4"/>
       <c r="DZ18" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,7 +6721,7 @@
       <c r="DX23" s="4"/>
       <c r="DY23" s="4"/>
       <c r="DZ23" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7142,7 +7145,7 @@
       <c r="DX24" s="4"/>
       <c r="DY24" s="4"/>
       <c r="DZ24" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8510,7 +8513,7 @@
       <c r="DX29" s="4"/>
       <c r="DY29" s="4"/>
       <c r="DZ29" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8934,7 +8937,7 @@
       <c r="DX30" s="4"/>
       <c r="DY30" s="4"/>
       <c r="DZ30" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10302,7 +10305,7 @@
       <c r="DX35" s="4"/>
       <c r="DY35" s="4"/>
       <c r="DZ35" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,7 +10729,7 @@
       <c r="DX36" s="4"/>
       <c r="DY36" s="4"/>
       <c r="DZ36" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,7 +12097,7 @@
       <c r="DX41" s="4"/>
       <c r="DY41" s="4"/>
       <c r="DZ41" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12518,7 +12521,7 @@
       <c r="DX42" s="4"/>
       <c r="DY42" s="4"/>
       <c r="DZ42" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13886,7 +13889,7 @@
       <c r="DX47" s="4"/>
       <c r="DY47" s="4"/>
       <c r="DZ47" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14310,7 +14313,7 @@
       <c r="DX48" s="4"/>
       <c r="DY48" s="4"/>
       <c r="DZ48" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15678,7 +15681,7 @@
       <c r="DX53" s="4"/>
       <c r="DY53" s="4"/>
       <c r="DZ53" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16102,7 +16105,7 @@
       <c r="DX54" s="4"/>
       <c r="DY54" s="4"/>
       <c r="DZ54" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17470,7 +17473,7 @@
       <c r="DX59" s="4"/>
       <c r="DY59" s="4"/>
       <c r="DZ59" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17894,7 +17897,7 @@
       <c r="DX60" s="4"/>
       <c r="DY60" s="4"/>
       <c r="DZ60" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19262,7 +19265,7 @@
       <c r="DX65" s="4"/>
       <c r="DY65" s="4"/>
       <c r="DZ65" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19686,7 +19689,7 @@
       <c r="DX66" s="4"/>
       <c r="DY66" s="4"/>
       <c r="DZ66" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21054,7 +21057,7 @@
       <c r="DX71" s="4"/>
       <c r="DY71" s="4"/>
       <c r="DZ71" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21478,7 +21481,7 @@
       <c r="DX72" s="4"/>
       <c r="DY72" s="4"/>
       <c r="DZ72" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22846,7 +22849,7 @@
       <c r="DX77" s="4"/>
       <c r="DY77" s="4"/>
       <c r="DZ77" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23270,7 +23273,7 @@
       <c r="DX78" s="4"/>
       <c r="DY78" s="4"/>
       <c r="DZ78" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24638,7 +24641,7 @@
       <c r="DX83" s="4"/>
       <c r="DY83" s="4"/>
       <c r="DZ83" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25062,7 +25065,7 @@
       <c r="DX84" s="4"/>
       <c r="DY84" s="4"/>
       <c r="DZ84" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26430,7 +26433,7 @@
       <c r="DX89" s="4"/>
       <c r="DY89" s="4"/>
       <c r="DZ89" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26854,7 +26857,7 @@
       <c r="DX90" s="4"/>
       <c r="DY90" s="4"/>
       <c r="DZ90" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28222,7 +28225,7 @@
       <c r="DX95" s="4"/>
       <c r="DY95" s="4"/>
       <c r="DZ95" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28646,7 +28649,7 @@
       <c r="DX96" s="4"/>
       <c r="DY96" s="4"/>
       <c r="DZ96" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30014,7 +30017,7 @@
       <c r="DX101" s="4"/>
       <c r="DY101" s="4"/>
       <c r="DZ101" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30438,7 +30441,7 @@
       <c r="DX102" s="4"/>
       <c r="DY102" s="4"/>
       <c r="DZ102" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/des-cipher-internals-in-excel/des-cipher-internals.xlsx
+++ b/des-cipher-internals-in-excel/des-cipher-internals.xlsx
@@ -353,7 +353,7 @@
     <t>DES Cipher Internals</t>
   </si>
   <si>
-    <t>http://www.nayuki.io/page/des-cipher-internals-in-excel</t>
+    <t>https://www.nayuki.io/page/des-cipher-internals-in-excel</t>
   </si>
 </sst>
 </file>

--- a/des-cipher-internals-in-excel/des-cipher-internals.xlsx
+++ b/des-cipher-internals-in-excel/des-cipher-internals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DES" sheetId="6" r:id="rId1"/>
     <sheet name="S-boxes" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Copyright © 2014 Nayuki Minase</t>
   </si>
   <si>
     <t>752878397493CB70</t>
@@ -355,11 +352,14 @@
   <si>
     <t>https://www.nayuki.io/page/des-cipher-internals-in-excel</t>
   </si>
+  <si>
+    <t>Copyright © 2014 Project Nayuki</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,6 +794,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -829,6 +846,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1004,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DZ106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1021,7 +1055,7 @@
   <sheetData>
     <row r="1" spans="1:130" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1155,7 +1189,7 @@
     </row>
     <row r="2" spans="1:130" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1222,7 +1256,7 @@
       <c r="BL2" s="26"/>
       <c r="BM2" s="26"/>
       <c r="BN2" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BO2" s="26"/>
       <c r="BP2" s="26"/>
@@ -1350,7 +1384,7 @@
     <row r="5" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -1368,7 +1402,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
@@ -1409,7 +1443,7 @@
     <row r="7" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1475,7 +1509,7 @@
       <c r="BL7" s="29"/>
       <c r="BM7" s="30"/>
       <c r="BN7" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO7" s="29"/>
       <c r="BP7" s="29"/>
@@ -1544,7 +1578,7 @@
     </row>
     <row r="8" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>IF(LEN(B5)=16,MID(HEX2BIN(MID(B5,1,1),4),1,1),0/0)</f>
@@ -2059,12 +2093,12 @@
         <v>0</v>
       </c>
       <c r="DZ8" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>BG8</f>
@@ -2555,7 +2589,7 @@
       <c r="DX9" s="4"/>
       <c r="DY9" s="4"/>
       <c r="DZ9" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2694,7 +2728,7 @@
     </row>
     <row r="11" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -3137,12 +3171,12 @@
       <c r="DX11" s="4"/>
       <c r="DY11" s="4"/>
       <c r="DZ11" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -3561,12 +3595,12 @@
       <c r="DX12" s="4"/>
       <c r="DY12" s="4"/>
       <c r="DZ12" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -3796,7 +3830,7 @@
     </row>
     <row r="14" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -4026,7 +4060,7 @@
     </row>
     <row r="15" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5" t="str">
         <f>AH9</f>
@@ -4352,7 +4386,7 @@
     </row>
     <row r="16" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -4486,7 +4520,7 @@
     </row>
     <row r="17" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -4929,12 +4963,12 @@
       <c r="DX17" s="4"/>
       <c r="DY17" s="4"/>
       <c r="DZ17" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -5353,12 +5387,12 @@
       <c r="DX18" s="4"/>
       <c r="DY18" s="4"/>
       <c r="DZ18" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -5588,7 +5622,7 @@
     </row>
     <row r="20" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -5818,7 +5852,7 @@
     </row>
     <row r="21" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5" t="str">
         <f>AH15</f>
@@ -6144,7 +6178,7 @@
     </row>
     <row r="22" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -6278,7 +6312,7 @@
     </row>
     <row r="23" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -6721,12 +6755,12 @@
       <c r="DX23" s="4"/>
       <c r="DY23" s="4"/>
       <c r="DZ23" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -7145,12 +7179,12 @@
       <c r="DX24" s="4"/>
       <c r="DY24" s="4"/>
       <c r="DZ24" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -7380,7 +7414,7 @@
     </row>
     <row r="26" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -7610,7 +7644,7 @@
     </row>
     <row r="27" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>AH21</f>
@@ -7936,7 +7970,7 @@
     </row>
     <row r="28" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -8070,7 +8104,7 @@
     </row>
     <row r="29" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -8513,12 +8547,12 @@
       <c r="DX29" s="4"/>
       <c r="DY29" s="4"/>
       <c r="DZ29" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -8937,12 +8971,12 @@
       <c r="DX30" s="4"/>
       <c r="DY30" s="4"/>
       <c r="DZ30" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -9172,7 +9206,7 @@
     </row>
     <row r="32" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -9402,7 +9436,7 @@
     </row>
     <row r="33" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>AH27</f>
@@ -9728,7 +9762,7 @@
     </row>
     <row r="34" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -9862,7 +9896,7 @@
     </row>
     <row r="35" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -10305,12 +10339,12 @@
       <c r="DX35" s="4"/>
       <c r="DY35" s="4"/>
       <c r="DZ35" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -10729,12 +10763,12 @@
       <c r="DX36" s="4"/>
       <c r="DY36" s="4"/>
       <c r="DZ36" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -10964,7 +10998,7 @@
     </row>
     <row r="38" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -11194,7 +11228,7 @@
     </row>
     <row r="39" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="5" t="str">
         <f>AH33</f>
@@ -11520,7 +11554,7 @@
     </row>
     <row r="40" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
@@ -11654,7 +11688,7 @@
     </row>
     <row r="41" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -12097,12 +12131,12 @@
       <c r="DX41" s="4"/>
       <c r="DY41" s="4"/>
       <c r="DZ41" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -12521,12 +12555,12 @@
       <c r="DX42" s="4"/>
       <c r="DY42" s="4"/>
       <c r="DZ42" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -12756,7 +12790,7 @@
     </row>
     <row r="44" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -12986,7 +13020,7 @@
     </row>
     <row r="45" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="5" t="str">
         <f>AH39</f>
@@ -13312,7 +13346,7 @@
     </row>
     <row r="46" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="18"/>
@@ -13446,7 +13480,7 @@
     </row>
     <row r="47" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -13889,12 +13923,12 @@
       <c r="DX47" s="4"/>
       <c r="DY47" s="4"/>
       <c r="DZ47" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -14313,12 +14347,12 @@
       <c r="DX48" s="4"/>
       <c r="DY48" s="4"/>
       <c r="DZ48" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -14548,7 +14582,7 @@
     </row>
     <row r="50" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -14778,7 +14812,7 @@
     </row>
     <row r="51" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="5" t="str">
         <f>AH45</f>
@@ -15104,7 +15138,7 @@
     </row>
     <row r="52" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
@@ -15238,7 +15272,7 @@
     </row>
     <row r="53" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -15681,12 +15715,12 @@
       <c r="DX53" s="4"/>
       <c r="DY53" s="4"/>
       <c r="DZ53" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -16105,12 +16139,12 @@
       <c r="DX54" s="4"/>
       <c r="DY54" s="4"/>
       <c r="DZ54" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -16340,7 +16374,7 @@
     </row>
     <row r="56" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -16570,7 +16604,7 @@
     </row>
     <row r="57" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="5" t="str">
         <f>AH51</f>
@@ -16896,7 +16930,7 @@
     </row>
     <row r="58" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="18"/>
@@ -17030,7 +17064,7 @@
     </row>
     <row r="59" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -17473,12 +17507,12 @@
       <c r="DX59" s="4"/>
       <c r="DY59" s="4"/>
       <c r="DZ59" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -17897,12 +17931,12 @@
       <c r="DX60" s="4"/>
       <c r="DY60" s="4"/>
       <c r="DZ60" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -18132,7 +18166,7 @@
     </row>
     <row r="62" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -18362,7 +18396,7 @@
     </row>
     <row r="63" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>AH57</f>
@@ -18688,7 +18722,7 @@
     </row>
     <row r="64" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
@@ -18822,7 +18856,7 @@
     </row>
     <row r="65" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -19265,12 +19299,12 @@
       <c r="DX65" s="4"/>
       <c r="DY65" s="4"/>
       <c r="DZ65" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -19689,12 +19723,12 @@
       <c r="DX66" s="4"/>
       <c r="DY66" s="4"/>
       <c r="DZ66" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -19924,7 +19958,7 @@
     </row>
     <row r="68" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -20154,7 +20188,7 @@
     </row>
     <row r="69" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>AH63</f>
@@ -20480,7 +20514,7 @@
     </row>
     <row r="70" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
@@ -20614,7 +20648,7 @@
     </row>
     <row r="71" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -21057,12 +21091,12 @@
       <c r="DX71" s="4"/>
       <c r="DY71" s="4"/>
       <c r="DZ71" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -21481,12 +21515,12 @@
       <c r="DX72" s="4"/>
       <c r="DY72" s="4"/>
       <c r="DZ72" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -21716,7 +21750,7 @@
     </row>
     <row r="74" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -21946,7 +21980,7 @@
     </row>
     <row r="75" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>AH69</f>
@@ -22272,7 +22306,7 @@
     </row>
     <row r="76" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
@@ -22406,7 +22440,7 @@
     </row>
     <row r="77" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -22849,12 +22883,12 @@
       <c r="DX77" s="4"/>
       <c r="DY77" s="4"/>
       <c r="DZ77" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -23273,12 +23307,12 @@
       <c r="DX78" s="4"/>
       <c r="DY78" s="4"/>
       <c r="DZ78" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -23508,7 +23542,7 @@
     </row>
     <row r="80" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -23738,7 +23772,7 @@
     </row>
     <row r="81" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>AH75</f>
@@ -24064,7 +24098,7 @@
     </row>
     <row r="82" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
@@ -24198,7 +24232,7 @@
     </row>
     <row r="83" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -24641,12 +24675,12 @@
       <c r="DX83" s="4"/>
       <c r="DY83" s="4"/>
       <c r="DZ83" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -25065,12 +25099,12 @@
       <c r="DX84" s="4"/>
       <c r="DY84" s="4"/>
       <c r="DZ84" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -25300,7 +25334,7 @@
     </row>
     <row r="86" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
@@ -25530,7 +25564,7 @@
     </row>
     <row r="87" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" s="5" t="str">
         <f>AH81</f>
@@ -25856,7 +25890,7 @@
     </row>
     <row r="88" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
@@ -25990,7 +26024,7 @@
     </row>
     <row r="89" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
@@ -26433,12 +26467,12 @@
       <c r="DX89" s="4"/>
       <c r="DY89" s="4"/>
       <c r="DZ89" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -26857,12 +26891,12 @@
       <c r="DX90" s="4"/>
       <c r="DY90" s="4"/>
       <c r="DZ90" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -27092,7 +27126,7 @@
     </row>
     <row r="92" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -27322,7 +27356,7 @@
     </row>
     <row r="93" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="5" t="str">
         <f>AH87</f>
@@ -27648,7 +27682,7 @@
     </row>
     <row r="94" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
@@ -27782,7 +27816,7 @@
     </row>
     <row r="95" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
@@ -28225,12 +28259,12 @@
       <c r="DX95" s="4"/>
       <c r="DY95" s="4"/>
       <c r="DZ95" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
@@ -28649,12 +28683,12 @@
       <c r="DX96" s="4"/>
       <c r="DY96" s="4"/>
       <c r="DZ96" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
@@ -28884,7 +28918,7 @@
     </row>
     <row r="98" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
@@ -29114,7 +29148,7 @@
     </row>
     <row r="99" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" s="5" t="str">
         <f>AH93</f>
@@ -29440,7 +29474,7 @@
     </row>
     <row r="100" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
@@ -29574,7 +29608,7 @@
     </row>
     <row r="101" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
@@ -30017,12 +30051,12 @@
       <c r="DX101" s="4"/>
       <c r="DY101" s="4"/>
       <c r="DZ101" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -30441,12 +30475,12 @@
       <c r="DX102" s="4"/>
       <c r="DY102" s="4"/>
       <c r="DZ102" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
@@ -30676,7 +30710,7 @@
     </row>
     <row r="104" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="6"/>
@@ -30906,7 +30940,7 @@
     </row>
     <row r="105" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="5" t="str">
         <f t="shared" ref="B105:AG105" si="2001">IF(AH104=B99,"0","1")</f>
@@ -31232,7 +31266,7 @@
     </row>
     <row r="106" spans="1:130" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="17" t="str">
         <f>AO105</f>
@@ -31579,7 +31613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31595,49 +31629,49 @@
         <v>5</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
       <c r="I1" s="38"/>
       <c r="J1" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
       <c r="M1" s="38"/>
       <c r="N1" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S1" s="37"/>
       <c r="T1" s="37"/>
       <c r="U1" s="37"/>
       <c r="V1" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W1" s="37"/>
       <c r="X1" s="37"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
       <c r="AC1" s="37"/>
       <c r="AD1" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE1" s="37"/>
       <c r="AF1" s="37"/>
@@ -31645,7 +31679,7 @@
     </row>
     <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -31746,7 +31780,7 @@
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -31847,7 +31881,7 @@
     </row>
     <row r="4" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -31948,7 +31982,7 @@
     </row>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -32049,7 +32083,7 @@
     </row>
     <row r="6" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -32150,7 +32184,7 @@
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -32251,7 +32285,7 @@
     </row>
     <row r="8" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -32352,7 +32386,7 @@
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -32453,7 +32487,7 @@
     </row>
     <row r="10" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -32554,7 +32588,7 @@
     </row>
     <row r="11" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -32655,7 +32689,7 @@
     </row>
     <row r="12" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -32756,7 +32790,7 @@
     </row>
     <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -32857,7 +32891,7 @@
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -32958,7 +32992,7 @@
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -33059,7 +33093,7 @@
     </row>
     <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -33160,7 +33194,7 @@
     </row>
     <row r="17" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -33261,7 +33295,7 @@
     </row>
     <row r="18" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -33362,7 +33396,7 @@
     </row>
     <row r="19" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -33463,7 +33497,7 @@
     </row>
     <row r="20" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -33564,7 +33598,7 @@
     </row>
     <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -33665,7 +33699,7 @@
     </row>
     <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -33766,7 +33800,7 @@
     </row>
     <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
@@ -33867,7 +33901,7 @@
     </row>
     <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -33968,7 +34002,7 @@
     </row>
     <row r="25" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -34069,7 +34103,7 @@
     </row>
     <row r="26" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
@@ -34170,7 +34204,7 @@
     </row>
     <row r="27" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -34271,7 +34305,7 @@
     </row>
     <row r="28" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -34372,7 +34406,7 @@
     </row>
     <row r="29" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -34473,7 +34507,7 @@
     </row>
     <row r="30" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -34574,7 +34608,7 @@
     </row>
     <row r="31" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -34675,7 +34709,7 @@
     </row>
     <row r="32" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
@@ -34776,7 +34810,7 @@
     </row>
     <row r="33" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -34877,7 +34911,7 @@
     </row>
     <row r="34" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
@@ -34978,7 +35012,7 @@
     </row>
     <row r="35" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -35079,7 +35113,7 @@
     </row>
     <row r="36" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -35180,7 +35214,7 @@
     </row>
     <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
@@ -35281,7 +35315,7 @@
     </row>
     <row r="38" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -35382,7 +35416,7 @@
     </row>
     <row r="39" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -35483,7 +35517,7 @@
     </row>
     <row r="40" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -35584,7 +35618,7 @@
     </row>
     <row r="41" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -35685,7 +35719,7 @@
     </row>
     <row r="42" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -35786,7 +35820,7 @@
     </row>
     <row r="43" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -35887,7 +35921,7 @@
     </row>
     <row r="44" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
@@ -35988,7 +36022,7 @@
     </row>
     <row r="45" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -36089,7 +36123,7 @@
     </row>
     <row r="46" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
@@ -36190,7 +36224,7 @@
     </row>
     <row r="47" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
@@ -36291,7 +36325,7 @@
     </row>
     <row r="48" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -36392,7 +36426,7 @@
     </row>
     <row r="49" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
@@ -36493,7 +36527,7 @@
     </row>
     <row r="50" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -36594,7 +36628,7 @@
     </row>
     <row r="51" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
@@ -36695,7 +36729,7 @@
     </row>
     <row r="52" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
@@ -36796,7 +36830,7 @@
     </row>
     <row r="53" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -36897,7 +36931,7 @@
     </row>
     <row r="54" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -36998,7 +37032,7 @@
     </row>
     <row r="55" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
@@ -37099,7 +37133,7 @@
     </row>
     <row r="56" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -37200,7 +37234,7 @@
     </row>
     <row r="57" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
@@ -37301,7 +37335,7 @@
     </row>
     <row r="58" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
@@ -37402,7 +37436,7 @@
     </row>
     <row r="59" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -37503,7 +37537,7 @@
     </row>
     <row r="60" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -37604,7 +37638,7 @@
     </row>
     <row r="61" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4</v>
@@ -37705,7 +37739,7 @@
     </row>
     <row r="62" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -37806,7 +37840,7 @@
     </row>
     <row r="63" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -37907,7 +37941,7 @@
     </row>
     <row r="64" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
@@ -38008,7 +38042,7 @@
     </row>
     <row r="65" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
